--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_76.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_76.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8525</v>
+        <v>2.6201</v>
       </c>
       <c r="J3" t="n">
-        <v>29.48</v>
+        <v>27.07</v>
       </c>
       <c r="K3" t="n">
-        <v>1509.78</v>
+        <v>1273.19</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.91</v>
+        <v>3.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1476.2571</v>
+        <v>1314.5558</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.594</v>
+        <v>2.3451</v>
       </c>
       <c r="J4" t="n">
-        <v>26.17</v>
+        <v>26.42</v>
       </c>
       <c r="K4" t="n">
-        <v>1218.98</v>
+        <v>1112.31</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="R4" t="n">
-        <v>1353.0205</v>
+        <v>1139.0451</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>12.9508</v>
+        <v>12.0215</v>
       </c>
       <c r="J5" t="n">
-        <v>27.84</v>
+        <v>27.09</v>
       </c>
       <c r="K5" t="n">
-        <v>6472.38</v>
+        <v>5846.79</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>11.09</v>
+        <v>11.96</v>
       </c>
       <c r="R5" t="n">
-        <v>5635.7746</v>
+        <v>5037.1574</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>15.3928</v>
+        <v>14.2931</v>
       </c>
       <c r="J6" t="n">
-        <v>29.46</v>
+        <v>27.86</v>
       </c>
       <c r="K6" t="n">
-        <v>8141.64</v>
+        <v>7147.9</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.06</v>
+        <v>9.99</v>
       </c>
       <c r="R6" t="n">
-        <v>4601.4411</v>
+        <v>4207.5371</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5189</v>
+        <v>6.2245</v>
       </c>
       <c r="J7" t="n">
-        <v>33.54</v>
+        <v>32.99</v>
       </c>
       <c r="K7" t="n">
-        <v>3925.01</v>
+        <v>3686.74</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6.2</v>
+        <v>7.02</v>
       </c>
       <c r="R7" t="n">
-        <v>3150.3812</v>
+        <v>2955.521</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>76.8402</v>
+        <v>73.4483</v>
       </c>
       <c r="J8" t="n">
-        <v>4.58</v>
+        <v>4.32</v>
       </c>
       <c r="K8" t="n">
-        <v>6322.7</v>
+        <v>5690.13</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>12.07</v>
+        <v>13.18</v>
       </c>
       <c r="R8" t="n">
-        <v>6131.6656</v>
+        <v>5549.7639</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>17.8062</v>
+        <v>17.1043</v>
       </c>
       <c r="J9" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="K9" t="n">
-        <v>645.53</v>
+        <v>549.87</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>516.2442</v>
+        <v>425.4188</v>
       </c>
     </row>
   </sheetData>
